--- a/data/bflor.xlsx
+++ b/data/bflor.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17426"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\joaobtj\Dropbox\_UFSC\PPGEAN\Bioestatistica\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\devgit\biostat_ebook\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3AACF4E-F10A-48F2-B4C4-44156C49980C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="b.flor" sheetId="1" r:id="rId1"/>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -553,10 +554,10 @@
     <cellStyle name="Ênfase5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Ênfase6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Incorreto" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Neutra" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Neutro" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Nota" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Ruim" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Saída" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Texto de Aviso" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Texto Explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
@@ -876,16 +877,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41:A55"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -896,7 +900,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -907,7 +911,7 @@
         <v>47.12</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -918,7 +922,7 @@
         <v>46.75</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -929,7 +933,7 @@
         <v>46.81</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -940,7 +944,7 @@
         <v>47.12</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -951,7 +955,7 @@
         <v>46.67</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -962,7 +966,7 @@
         <v>47.43</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -973,7 +977,7 @@
         <v>46.44</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -984,7 +988,7 @@
         <v>46.64</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -995,7 +999,7 @@
         <v>48.07</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -1006,7 +1010,7 @@
         <v>48.34</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -1017,7 +1021,7 @@
         <v>48.15</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -1028,7 +1032,7 @@
         <v>50.26</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -1039,7 +1043,7 @@
         <v>50.12</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -1050,7 +1054,7 @@
         <v>46.34</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -1061,7 +1065,7 @@
         <v>46.94</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -1072,7 +1076,7 @@
         <v>48.36</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -1083,7 +1087,7 @@
         <v>41.9</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -1094,7 +1098,7 @@
         <v>42.01</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -1105,7 +1109,7 @@
         <v>41.93</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -1116,7 +1120,7 @@
         <v>43.09</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -1127,7 +1131,7 @@
         <v>41.47</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -1138,7 +1142,7 @@
         <v>41.69</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -1149,7 +1153,7 @@
         <v>39.78</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -1160,7 +1164,7 @@
         <v>40.57</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -1171,7 +1175,7 @@
         <v>39.630000000000003</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -1182,7 +1186,7 @@
         <v>42.18</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -1193,7 +1197,7 @@
         <v>40.659999999999997</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -1204,7 +1208,7 @@
         <v>37.869999999999997</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -1215,7 +1219,7 @@
         <v>39.159999999999997</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -1226,7 +1230,7 @@
         <v>37.4</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -1237,7 +1241,7 @@
         <v>38.200000000000003</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -1248,7 +1252,7 @@
         <v>38.07</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -1259,7 +1263,7 @@
         <v>38.1</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -1270,7 +1274,7 @@
         <v>37.97</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -1281,7 +1285,7 @@
         <v>38.79</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>4</v>
       </c>
@@ -1292,7 +1296,7 @@
         <v>38.229999999999997</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>4</v>
       </c>
@@ -1303,7 +1307,7 @@
         <v>38.869999999999997</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>4</v>
       </c>
@@ -1314,7 +1318,7 @@
         <v>37.78</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>4</v>
       </c>
@@ -1325,7 +1329,7 @@
         <v>38.01</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>5</v>
       </c>
@@ -1336,7 +1340,7 @@
         <v>36.78</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>5</v>
       </c>
@@ -1347,7 +1351,7 @@
         <v>37.020000000000003</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>5</v>
       </c>
@@ -1358,7 +1362,7 @@
         <v>36.520000000000003</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>5</v>
       </c>
@@ -1369,7 +1373,7 @@
         <v>36.11</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>5</v>
       </c>
@@ -1380,7 +1384,7 @@
         <v>36.03</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>5</v>
       </c>
@@ -1391,7 +1395,7 @@
         <v>35.450000000000003</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>5</v>
       </c>
@@ -1402,7 +1406,7 @@
         <v>38.130000000000003</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>5</v>
       </c>
@@ -1413,7 +1417,7 @@
         <v>37.1</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>5</v>
       </c>
@@ -1424,7 +1428,7 @@
         <v>35.17</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>5</v>
       </c>
@@ -1435,7 +1439,7 @@
         <v>36.82</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>5</v>
       </c>
@@ -1446,7 +1450,7 @@
         <v>36.659999999999997</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>5</v>
       </c>
@@ -1457,7 +1461,7 @@
         <v>35.68</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>5</v>
       </c>
@@ -1468,7 +1472,7 @@
         <v>36.03</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>5</v>
       </c>
@@ -1479,7 +1483,7 @@
         <v>34.57</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>5</v>
       </c>
